--- a/ObbaExcelSheets/IntensityBasedCVAAndCWCCVAvsCorrelation.xlsx
+++ b/ObbaExcelSheets/IntensityBasedCVAAndCWCCVAvsCorrelation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -23,18 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Parameters:</t>
   </si>
   <si>
     <t>Constructor Parameters:</t>
-  </si>
-  <si>
-    <t>CIR (Intensity) Parameters</t>
-  </si>
-  <si>
-    <t>Hull White (Short Rate) Parameters</t>
   </si>
   <si>
     <t>Monte Carlo Parameters</t>
@@ -62,9 +56,6 @@
   </si>
   <si>
     <t>Path:</t>
-  </si>
-  <si>
-    <t>C:\Users\Anton\workspace\lib</t>
   </si>
   <si>
     <t>isRelative:</t>
@@ -112,28 +103,10 @@
     <t>Lando Approach</t>
   </si>
   <si>
-    <t>Array List of Lando Functions</t>
-  </si>
-  <si>
     <t>Lando Function</t>
   </si>
   <si>
-    <t>Adding Lando Function to List</t>
-  </si>
-  <si>
-    <t>NPV:</t>
-  </si>
-  <si>
     <t>CWC/NPV</t>
-  </si>
-  <si>
-    <t>pCorr/CWC</t>
-  </si>
-  <si>
-    <t>nCorr/CWC</t>
-  </si>
-  <si>
-    <t>NPV</t>
   </si>
   <si>
     <t>Ratios</t>
@@ -141,15 +114,75 @@
   <si>
     <t>Bond Parameters</t>
   </si>
+  <si>
+    <t>ArrayList:</t>
+  </si>
+  <si>
+    <t>Hull White  Parameters</t>
+  </si>
+  <si>
+    <t>Short Rate Model</t>
+  </si>
+  <si>
+    <t>Intensity Models</t>
+  </si>
+  <si>
+    <t>CIR Parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lando Functions </t>
+  </si>
+  <si>
+    <t>Adding Lando Functions to List</t>
+  </si>
+  <si>
+    <t>Creating Helper Object</t>
+  </si>
+  <si>
+    <t>Product Parameters</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Intensity based CVA</t>
+  </si>
+  <si>
+    <t>Constrained Worst Case CVA</t>
+  </si>
+  <si>
+    <t>Net Present Value at 0</t>
+  </si>
+  <si>
+    <t>Corr/CWC (Corr = -1)</t>
+  </si>
+  <si>
+    <t>Corr/CWC (Corr = +1)</t>
+  </si>
+  <si>
+    <t>&lt;- Reload if sheet is not working properly.</t>
+  </si>
+  <si>
+    <t>Intensity Based CVA (IBCVA) vs Constrained Worst Case CVA (CWCCVA)</t>
+  </si>
+  <si>
+    <t>General parameters</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>..\lib</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;WAHR&quot;;&quot;WAHR&quot;;&quot;FALSCH&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +206,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +297,26 @@
         <bgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -392,11 +484,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -431,7 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,6 +707,81 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,17 +848,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>CVA</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
               <a:t> of Bond</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41777467890599018"/>
+          <c:y val="2.566959677365797E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -581,7 +898,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5594624807821643E-2"/>
+          <c:y val="0.16287373590229498"/>
+          <c:w val="0.66790188788099369"/>
+          <c:h val="0.66532967240801322"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -589,7 +916,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Corr</c:v>
+            <c:v>Intensity Based CVA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -617,7 +944,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$30:$F$40</c:f>
+              <c:f>Tabelle1!$I$60:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -659,42 +986,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$R$15:$R$25</c:f>
+              <c:f>Tabelle1!$S$38:$S$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.59375633806690098</c:v>
+                  <c:v>0.59336218593351042</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59152242802023169</c:v>
+                  <c:v>0.5911318463307913</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57775973751495446</c:v>
+                  <c:v>0.57739289629777679</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56131992906146411</c:v>
+                  <c:v>0.5609830732945067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55039315772704067</c:v>
+                  <c:v>0.55007766099203481</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5258122501301703</c:v>
+                  <c:v>0.52566277649367898</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50370420023270246</c:v>
+                  <c:v>0.50376049346765228</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49516406798278978</c:v>
+                  <c:v>0.49522554845957933</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48295574858104512</c:v>
+                  <c:v>0.48302453280055191</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47410905499935024</c:v>
+                  <c:v>0.4741807265464052</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.473347075625769</c:v>
+                  <c:v>0.47341792597743249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,7 +1037,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>CWC</c:v>
+            <c:v>Constrained Worst Case CVA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -738,7 +1065,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$30:$F$40</c:f>
+              <c:f>Tabelle1!$I$60:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -780,42 +1107,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$S$15:$S$25</c:f>
+              <c:f>Tabelle1!$T$38:$T$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77136991093190055</c:v>
+                  <c:v>0.77091694888319806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,6 +1186,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>Correlation between Brownian</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+                  <a:t> motion of short rate and intensity</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -921,6 +1308,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>CVA</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" baseline="0"/>
+                  <a:t> Value</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -970,6 +1417,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73208848832055573"/>
+          <c:y val="5.1840169367364262E-2"/>
+          <c:w val="0.23449136784125044"/>
+          <c:h val="0.35878011377204183"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1041,7 +1529,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>CVA of Swap</a:t>
             </a:r>
           </a:p>
@@ -1078,7 +1566,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8997197293792101E-2"/>
+          <c:y val="0.15406257261199732"/>
+          <c:w val="0.67649179066435783"/>
+          <c:h val="0.66958772165537461"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1086,7 +1584,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Corr</c:v>
+            <c:v>Intensity Based CVA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1114,7 +1612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$30:$F$40</c:f>
+              <c:f>Tabelle1!$I$60:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1156,42 +1654,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$V$15:$V$25</c:f>
+              <c:f>Tabelle1!$W$38:$W$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0654092570233321E-2</c:v>
+                  <c:v>2.0670767502783537E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1322261423994768E-2</c:v>
+                  <c:v>2.1338614205129627E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.494123895576902E-2</c:v>
+                  <c:v>2.4955512076993362E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9136978792319981E-2</c:v>
+                  <c:v>2.9148481608100452E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1914505204759566E-2</c:v>
+                  <c:v>3.1924027146462294E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1795869152534517E-2</c:v>
+                  <c:v>3.1855472357141833E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.50296729668143E-2</c:v>
+                  <c:v>3.5107312136585342E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7410983998527825E-2</c:v>
+                  <c:v>3.7494285282019452E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0942860505577723E-2</c:v>
+                  <c:v>4.1033436588383987E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3809588743545687E-2</c:v>
+                  <c:v>4.390460891031403E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.421007939204484E-2</c:v>
+                  <c:v>4.4305441011880685E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,7 +1705,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>CWC</c:v>
+            <c:v>Constrained Worst Case CVA</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1235,7 +1733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$30:$F$40</c:f>
+              <c:f>Tabelle1!$I$60:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1277,42 +1775,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$W$15:$W$25</c:f>
+              <c:f>Tabelle1!$X$38:$X$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.970647339894818E-2</c:v>
+                  <c:v>7.974309953159707E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,6 +1854,129 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Correlation between Brownian motion of short rate and intensity</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr>
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.12161842201082805"/>
+              <c:y val="0.89009186380236893"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1418,6 +2039,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1200"/>
+                  <a:t>CVA Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1467,6 +2143,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75573624640814907"/>
+          <c:y val="8.7338432887151263E-2"/>
+          <c:w val="0.22631921775011316"/>
+          <c:h val="0.27468056501237514"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2617,7 +3334,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$F$7" max="30000" page="10" val="9"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$40" max="30000" page="10" val="9"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2626,15 +3343,15 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>175260</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>39</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2674,16 +3391,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41565</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>13854</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>207820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2715490</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720437</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>248986</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2710,16 +3427,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>110835</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>845128</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>2715490</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>540326</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>249381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3033,267 +3750,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="29" t="b">
+      <c r="D8" s="28" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="26"/>
-      <c r="C11" s="32" t="b">
+      <c r="B11" s="25"/>
+      <c r="C11" s="31" t="b">
         <f>[1]!obControlPanelSetVisible(D8)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="25" t="str">
+        <f>[1]!obAddAllJars(G8,G9)</f>
+        <v>C:\Users\anton\git\MA\ObbaExcelSheets\..\lib</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26" t="s">
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="26" t="str">
-        <f>[1]!obAddAllJars(G8,G9)</f>
-        <v>C:\Users\Anton\workspace\lib</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27" t="s">
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="26"/>
-      <c r="C16" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="26" t="str">
+      <c r="D17" s="25" t="str">
         <f>[1]!obGetProperty("version")</f>
         <v>4.2.2</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="30"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="26" t="str">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="25" t="str">
         <f>[1]!obGetProperty("build")</f>
         <v>40201</v>
       </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="31">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="28"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="26" t="str">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="25" t="str">
         <f>[1]!obAddClasses(G8,G18)</f>
-        <v>C:\Users\Anton\workspace\lib</v>
+        <v>..\lib</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="33" t="str">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="32" t="str">
         <f>IF(OR(ISERROR(G12),ISERROR(G21)),NA(),"")</f>
         <v/>
       </c>
-      <c r="G27" s="26"/>
+      <c r="G27" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3301,2023 +4018,2847 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:AI152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="11" max="11" width="32.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" customWidth="1"/>
-    <col min="22" max="22" width="9.88671875" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" customWidth="1"/>
-    <col min="27" max="27" width="14" customWidth="1"/>
-    <col min="28" max="28" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="28.21875" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="13" max="13" width="39.109375" customWidth="1"/>
+    <col min="14" max="14" width="32.77734375" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="18" max="18" width="34.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.88671875" customWidth="1"/>
+    <col min="20" max="20" width="29.44140625" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" customWidth="1"/>
+    <col min="24" max="24" width="30.21875" customWidth="1"/>
+    <col min="25" max="25" width="2.77734375" customWidth="1"/>
+    <col min="27" max="27" width="35.109375" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="29" max="29" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:34" ht="279" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="3:20" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="C2" s="85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="R4" s="52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R6" s="65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R7" s="66" t="str">
+        <f>[1]!obMake("intBasedCWCCVAforDifCor", "test.net.finmath.antonsporrer.masterthesis.montecarlo.cva.IntBasedCWCCVAforDifCor", C29,C50,D50,E50,I59,M27,I27:K27 )</f>
+        <v>intBasedCWCCVAforDifCor 
+[6712]</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="54"/>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R8" s="67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R9" s="66" t="str">
+        <f>[1]!obCall("", R7, "setInitialTime",C28)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6713]</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R10" s="66" t="str">
+        <f>[1]!obCall("", R9, "setTimeStepSize",C30)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6714]</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R11" s="66" t="str">
+        <f>[1]!obCall("", R10, "setNumberOfPaths",C39)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6715]</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R12" s="66" t="str">
+        <f>[1]!obCall("", R11, "setSeed",C40)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6716]</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R13" s="66" t="str">
+        <f>[1]!obCall("", R12, "setInitialValue",I51)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6717]</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R14" s="66" t="str">
+        <f>[1]!obCall("", R13, "setKappa",I52)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6718]</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R15" s="66" t="str">
+        <f>[1]!obCall("", R14, "setMu",I53)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6719]</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="R16" s="66" t="str">
+        <f>[1]!obCall("", R15, "setNu",I54)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6720]</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="R17" s="66" t="str">
+        <f>[1]!obCall("", R16, "setSwapRate",N27)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6721]</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
+      <c r="R18" s="66" t="str">
+        <f>[1]!obCall("", R17, "setPenaltyFactor",C33)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6722]</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R19" s="68" t="str">
+        <f>[1]!obCall("", R18, "setLandoFunction",M51)</f>
+        <v>intBasedCWCCVAforDifCor 
+[6723]</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" ht="22.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:35" ht="41.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:35" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C22" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="41"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="43"/>
+    </row>
+    <row r="25" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="44"/>
+      <c r="C25" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="16" t="s">
+      <c r="N25" s="1"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="45"/>
+      <c r="AI25" s="36"/>
+    </row>
+    <row r="26" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="44"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="45"/>
+    </row>
+    <row r="27" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="44"/>
+      <c r="C27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="19" t="str">
+        <f>[1]!obMake("paymentDatesBond", "double[]", I28:I37)</f>
+        <v>paymentDatesBond 
+[6267]</v>
+      </c>
+      <c r="J27" s="33" t="str">
+        <f>[1]!obMake("periodFactors", "double[]",J28:J37)</f>
+        <v>periodFactors 
+[6269]</v>
+      </c>
+      <c r="K27" s="33" t="str">
+        <f>[1]!obMake("coupons", "double[]",K28:K37)</f>
+        <v>coupons 
+[6272]</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="19" t="str">
+        <f>[1]!obMake("fixingAndPaymentDatesSwap", "double[]", M28:M37)</f>
+        <v>fixingAndPaymentDatesSwap 
+[6274]</v>
+      </c>
+      <c r="N27" s="19" t="str">
+        <f>[1]!obMake("Swap Rate", "double",N28)</f>
+        <v>Swap Rate 
+[6268]</v>
+      </c>
+      <c r="O27" s="45"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S27" s="55">
+        <f>[1]!obGet([1]!obCall("",R19, "getNPVAtZeroOfCouponBond"))</f>
+        <v>1.7503014266783818</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W27" s="55">
+        <f>[1]!obGet([1]!obCall("",R19, "getNPVAtZeroOfSwap"))</f>
+        <v>6.0303124581568945E-2</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="45"/>
+    </row>
+    <row r="28" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="44"/>
+      <c r="C28" s="4" t="str">
+        <f>[1]!obMake("td.initialTime", "double",D28)</f>
+        <v>td.initialTime 
+[6322]</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="20">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="O28" s="45"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="45"/>
+    </row>
+    <row r="29" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="44"/>
+      <c r="C29" s="4" t="str">
+        <f>[1]!obMake("td.numberOfTimeSteps", "int",D29)</f>
+        <v>td.numberOfTimeSteps 
+[6362]</v>
+      </c>
+      <c r="D29" s="5">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="21">
+        <v>2</v>
+      </c>
+      <c r="J29" s="21">
+        <v>1</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="21">
+        <v>2</v>
+      </c>
+      <c r="N29" s="12"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="45"/>
+    </row>
+    <row r="30" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="44"/>
+      <c r="C30" s="4" t="str">
+        <f>[1]!obMake("td.deltaT","double",D30)</f>
+        <v>td.deltaT 
+[6285]</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="21">
+        <v>3</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="21">
+        <v>3</v>
+      </c>
+      <c r="N30" s="12"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="58"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W30" s="58"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="45"/>
+    </row>
+    <row r="31" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="44"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="21">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="K2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="AH2" s="37"/>
-    </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="U3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="J31" s="21">
+        <v>1</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="21">
+        <v>4</v>
+      </c>
+      <c r="N31" s="12"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="S31" s="57">
+        <f>T43/S27</f>
+        <v>0.44044810632771891</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="57">
+        <f>X38/W27</f>
+        <v>1.3223709398960359</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="45"/>
+    </row>
+    <row r="32" spans="2:35" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="21">
+        <v>5</v>
+      </c>
+      <c r="J32" s="21">
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="21">
+        <v>5</v>
+      </c>
+      <c r="N32" s="12"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S32" s="55">
+        <f>S38/T38</f>
+        <v>0.76968366928901311</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="W32" s="55">
+        <f>W38/X38</f>
+        <v>0.25921700591275659</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="45"/>
+    </row>
+    <row r="33" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="44"/>
+      <c r="C33" s="17" t="str">
+        <f>[1]!obMake("penaltyFactor","double",D33)</f>
+        <v>penaltyFactor 
+[6358]</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="21">
+        <v>6</v>
+      </c>
+      <c r="J33" s="21">
+        <v>1</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="21">
+        <v>6</v>
+      </c>
+      <c r="N33" s="12"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="55">
+        <f>S48/T48</f>
+        <v>0.61409718214557019</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="W33" s="55">
+        <f>W48/X48</f>
+        <v>0.55560219344528095</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="45"/>
+    </row>
+    <row r="34" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="44"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="21">
+        <v>7</v>
+      </c>
+      <c r="J34" s="21">
+        <v>1</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="21">
+        <v>7</v>
+      </c>
+      <c r="N34" s="12"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="45"/>
+    </row>
+    <row r="35" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="44"/>
+      <c r="C35" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="21">
+        <v>8</v>
+      </c>
+      <c r="J35" s="21">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="21">
+        <v>8</v>
+      </c>
+      <c r="N35" s="12"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="45"/>
+    </row>
+    <row r="36" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="44"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="21">
+        <v>9</v>
+      </c>
+      <c r="J36" s="21">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="21">
+        <v>9</v>
+      </c>
+      <c r="N36" s="12"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="59" t="str">
+        <f>[1]!obCall("resultsCorrelation", R19, "getIntBasedCWCCVAforCor",)</f>
+        <v>resultsCorrelation 
+[6724]</v>
+      </c>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="61"/>
+      <c r="Y36" s="45"/>
+    </row>
+    <row r="37" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="44"/>
+      <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="22">
+        <v>10</v>
+      </c>
+      <c r="J37" s="22">
+        <v>1</v>
+      </c>
+      <c r="K37" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="22">
+        <v>10</v>
+      </c>
+      <c r="N37" s="14"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="T37" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y37" s="45"/>
+    </row>
+    <row r="38" spans="2:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="44"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="74">
         <v>0</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="K4" s="20" t="str">
-        <f>[1]!obMake("paymentDatesBond", "double[]", K5:K14)</f>
-        <v>paymentDatesBond 
-[3225]</v>
-      </c>
-      <c r="L4" s="34" t="str">
-        <f>[1]!obMake("periodFactors", "double[]",L5:L14)</f>
-        <v>periodFactors 
-[3222]</v>
-      </c>
-      <c r="M4" s="34" t="str">
-        <f>[1]!obMake("coupons", "double[]",M5:M14)</f>
-        <v>coupons 
-[3220]</v>
-      </c>
-    </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="str">
-        <f>[1]!obMake("td.initialTime", "double",C5)</f>
-        <v>td.initialTime 
-[3322]</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="S38" s="78">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R38,$S$36,"[][][]", [1]!obMake("","int",R38), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.59336218593351042</v>
+      </c>
+      <c r="T38" s="86">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S38,$S$36,"[][]", [1]!obMake("","int",S38), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U38" s="60"/>
+      <c r="V38" s="70">
         <v>0</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="K5" s="21">
+      <c r="W38" s="81">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V38,$S$36,"[][][]", [1]!obMake("","int",V38), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>2.0670767502783537E-2</v>
+      </c>
+      <c r="X38" s="86">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W38,$S$36,"[][]", [1]!obMake("","int",W38), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y38" s="45"/>
+    </row>
+    <row r="39" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="44"/>
+      <c r="C39" s="4" t="str">
+        <f>[1]!obMake("numberOfPaths", "int",D39)</f>
+        <v>numberOfPaths 
+[6581]</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1001</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="75">
         <v>1</v>
       </c>
-      <c r="L5" s="21">
+      <c r="S39" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R39,$S$36,"[][][]", [1]!obMake("","int",R39), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.5911318463307913</v>
+      </c>
+      <c r="T39" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S39,$S$36,"[][]", [1]!obMake("","int",S39), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U39" s="1"/>
+      <c r="V39" s="84">
         <v>1</v>
       </c>
-      <c r="M5" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5">
-        <f>[1]!obGet([1]!obCall("",K43, "getNPVAtZeroOfCouponBond"))</f>
-        <v>1.7503014266783818</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="W39" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V39,$S$36,"[][][]", [1]!obMake("","int",V39), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>2.1338614205129627E-2</v>
+      </c>
+      <c r="X39" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W39,$S$36,"[][]", [1]!obMake("","int",W39), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y39" s="45"/>
+    </row>
+    <row r="40" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="44"/>
+      <c r="C40" s="4" t="str">
+        <f>[1]!obMake("seed","int",D40 )</f>
+        <v>seed 
+[6348]</v>
+      </c>
+      <c r="D40" s="6">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="1"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="75">
+        <v>2</v>
+      </c>
+      <c r="S40" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R40,$S$36,"[][][]", [1]!obMake("","int",R40), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.57739289629777679</v>
+      </c>
+      <c r="T40" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S40,$S$36,"[][]", [1]!obMake("","int",S40), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="84">
+        <v>2</v>
+      </c>
+      <c r="W40" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V40,$S$36,"[][][]", [1]!obMake("","int",V40), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>2.4955512076993362E-2</v>
+      </c>
+      <c r="X40" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W40,$S$36,"[][]", [1]!obMake("","int",W40), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y40" s="45"/>
+    </row>
+    <row r="41" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="44"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="1"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="75">
+        <v>3</v>
+      </c>
+      <c r="S41" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R41,$S$36,"[][][]", [1]!obMake("","int",R41), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.5609830732945067</v>
+      </c>
+      <c r="T41" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S41,$S$36,"[][]", [1]!obMake("","int",S41), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="84">
+        <v>3</v>
+      </c>
+      <c r="W41" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V41,$S$36,"[][][]", [1]!obMake("","int",V41), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>2.9148481608100452E-2</v>
+      </c>
+      <c r="X41" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W41,$S$36,"[][]", [1]!obMake("","int",W41), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y41" s="45"/>
+    </row>
+    <row r="42" spans="2:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="1"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="75">
+        <v>4</v>
+      </c>
+      <c r="S42" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R42,$S$36,"[][][]", [1]!obMake("","int",R42), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.55007766099203481</v>
+      </c>
+      <c r="T42" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S42,$S$36,"[][]", [1]!obMake("","int",S42), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U42" s="1"/>
+      <c r="V42" s="84">
+        <v>4</v>
+      </c>
+      <c r="W42" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V42,$S$36,"[][][]", [1]!obMake("","int",V42), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>3.1924027146462294E-2</v>
+      </c>
+      <c r="X42" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W42,$S$36,"[][]", [1]!obMake("","int",W42), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y42" s="45"/>
+    </row>
+    <row r="43" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q43" s="44"/>
+      <c r="R43" s="75">
+        <v>5</v>
+      </c>
+      <c r="S43" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R43,$S$36,"[][][]", [1]!obMake("","int",R43), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.52566277649367898</v>
+      </c>
+      <c r="T43" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S43,$S$36,"[][]", [1]!obMake("","int",S43), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="84">
+        <v>5</v>
+      </c>
+      <c r="W43" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V43,$S$36,"[][][]", [1]!obMake("","int",V43), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>3.1855472357141833E-2</v>
+      </c>
+      <c r="X43" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W43,$S$36,"[][]", [1]!obMake("","int",W43), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y43" s="45"/>
+    </row>
+    <row r="44" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q44" s="44"/>
+      <c r="R44" s="75">
+        <v>6</v>
+      </c>
+      <c r="S44" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R44,$S$36,"[][][]", [1]!obMake("","int",R44), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.50376049346765228</v>
+      </c>
+      <c r="T44" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S44,$S$36,"[][]", [1]!obMake("","int",S44), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U44" s="1"/>
+      <c r="V44" s="84">
+        <v>6</v>
+      </c>
+      <c r="W44" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V44,$S$36,"[][][]", [1]!obMake("","int",V44), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>3.5107312136585342E-2</v>
+      </c>
+      <c r="X44" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W44,$S$36,"[][]", [1]!obMake("","int",W44), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y44" s="45"/>
+    </row>
+    <row r="45" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C45" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="V5">
-        <f>[1]!obGet([1]!obCall("",K43, "getNPVAtZeroOfSwap"))</f>
-        <v>6.0303124581568945E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="str">
-        <f>[1]!obMake("td.numberOfTimeSteps", "int",C6)</f>
-        <v>td.numberOfTimeSteps 
-[3345]</v>
-      </c>
-      <c r="C6" s="5">
-        <v>100</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="str">
-        <f>[1]!obMake("numberOfPaths", "int",F6)</f>
-        <v>numberOfPaths 
-[3245]</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="22">
-        <v>2</v>
-      </c>
-      <c r="L6" s="22">
+      <c r="I45" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="75">
+        <v>7</v>
+      </c>
+      <c r="S45" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R45,$S$36,"[][][]", [1]!obMake("","int",R45), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.49522554845957933</v>
+      </c>
+      <c r="T45" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S45,$S$36,"[][]", [1]!obMake("","int",S45), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="84">
+        <v>7</v>
+      </c>
+      <c r="W45" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V45,$S$36,"[][][]", [1]!obMake("","int",V45), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>3.7494285282019452E-2</v>
+      </c>
+      <c r="X45" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W45,$S$36,"[][]", [1]!obMake("","int",W45), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y45" s="45"/>
+    </row>
+    <row r="46" spans="2:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q46" s="44"/>
+      <c r="R46" s="75">
+        <v>8</v>
+      </c>
+      <c r="S46" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R46,$S$36,"[][][]", [1]!obMake("","int",R46), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.48302453280055191</v>
+      </c>
+      <c r="T46" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S46,$S$36,"[][]", [1]!obMake("","int",S46), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U46" s="1"/>
+      <c r="V46" s="84">
+        <v>8</v>
+      </c>
+      <c r="W46" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V46,$S$36,"[][][]", [1]!obMake("","int",V46), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>4.1033436588383987E-2</v>
+      </c>
+      <c r="X46" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W46,$S$36,"[][]", [1]!obMake("","int",W46), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y46" s="45"/>
+    </row>
+    <row r="47" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="43"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="75">
+        <v>9</v>
+      </c>
+      <c r="S47" s="79">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R47,$S$36,"[][][]", [1]!obMake("","int",R47), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.4741807265464052</v>
+      </c>
+      <c r="T47" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S47,$S$36,"[][]", [1]!obMake("","int",S47), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="84">
+        <v>9</v>
+      </c>
+      <c r="W47" s="77">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V47,$S$36,"[][][]", [1]!obMake("","int",V47), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>4.390460891031403E-2</v>
+      </c>
+      <c r="X47" s="87">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W47,$S$36,"[][]", [1]!obMake("","int",W47), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y47" s="45"/>
+    </row>
+    <row r="48" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="44"/>
+      <c r="C48" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="45"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="76">
+        <v>10</v>
+      </c>
+      <c r="S48" s="80">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R48,$S$36,"[][][]", [1]!obMake("","int",R48), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.47341792597743249</v>
+      </c>
+      <c r="T48" s="57">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S48,$S$36,"[][]", [1]!obMake("","int",S48), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.77091694888319806</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="83">
+        <v>10</v>
+      </c>
+      <c r="W48" s="82">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V48,$S$36,"[][][]", [1]!obMake("","int",V48), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>4.4305441011880685E-2</v>
+      </c>
+      <c r="X48" s="57">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W48,$S$36,"[][]", [1]!obMake("","int",W48), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>7.974309953159707E-2</v>
+      </c>
+      <c r="Y48" s="45"/>
+    </row>
+    <row r="49" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="44"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="45"/>
+      <c r="Q49" s="44"/>
+      <c r="U49" s="1"/>
+      <c r="Y49" s="45"/>
+    </row>
+    <row r="50" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="44"/>
+      <c r="C50" s="8" t="str">
+        <f>[1]!obMake("meanReversionArrayHW", "double[]",C51:C151)</f>
+        <v>meanReversionArrayHW 
+[6262]</v>
+      </c>
+      <c r="D50" s="8" t="str">
+        <f>[1]!obMake("volatilitesArrayHW", "double[]",D51:D151)</f>
+        <v>volatilitesArrayHW 
+[6263]</v>
+      </c>
+      <c r="E50" s="9" t="str">
+        <f>[1]!obMake("forwardRatesArrayHW", "double[]",E51:E55)</f>
+        <v>forwardRatesArrayHW 
+[6344]</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="str">
-        <f>[1]!obMake("td.deltaT","double",C7)</f>
-        <v>td.deltaT 
-[3366]</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4" t="str">
-        <f>[1]!obMake("seed","int",F7 )</f>
-        <v>seed 
-[3291]</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9</v>
-      </c>
-      <c r="K7" s="22">
-        <v>3</v>
-      </c>
-      <c r="L7" s="22">
-        <v>1</v>
-      </c>
-      <c r="M7" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="K8" s="22">
-        <v>4</v>
-      </c>
-      <c r="L8" s="22">
-        <v>1</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="K9" s="22">
-        <v>5</v>
-      </c>
-      <c r="L9" s="22">
-        <v>1</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9">
-        <f>S20/R5</f>
-        <v>0.44070689720899137</v>
-      </c>
-      <c r="U9" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9">
-        <f>W15/V5</f>
-        <v>1.3217635728167505</v>
-      </c>
-    </row>
-    <row r="10" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="str">
-        <f>[1]!obMake("penaltyFactor","double",C10)</f>
-        <v>penaltyFactor 
-[3229]</v>
-      </c>
-      <c r="C10" s="5">
-        <v>20</v>
-      </c>
-      <c r="K10" s="22">
-        <v>6</v>
-      </c>
-      <c r="L10" s="22">
-        <v>1</v>
-      </c>
-      <c r="M10" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>35</v>
-      </c>
-      <c r="R10">
-        <f>R15/S15</f>
-        <v>0.76974267423728959</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10">
-        <f>V15/W15</f>
-        <v>0.25912691516101971</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="K11" s="22">
-        <v>7</v>
-      </c>
-      <c r="L11" s="22">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11">
-        <f>R25/S25</f>
-        <v>0.61364472339077003</v>
-      </c>
-      <c r="U11" t="s">
-        <v>34</v>
-      </c>
-      <c r="V11">
-        <f>V25/W25</f>
-        <v>0.55466108970552253</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="K12" s="22">
-        <v>8</v>
-      </c>
-      <c r="L12" s="22">
-        <v>1</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="K13" s="22">
-        <v>9</v>
-      </c>
-      <c r="L13" s="22">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" t="str">
-        <f>[1]!obCall("resultsCorrelation", K43, "getIntBasedCWCCVAforCor",)</f>
-        <v>resultsCorrelation 
-[5199]</v>
-      </c>
-    </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="K14" s="23">
-        <v>10</v>
-      </c>
-      <c r="L14" s="23">
-        <v>1</v>
-      </c>
-      <c r="M14" s="14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.3">
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q15,$S$13,"[][][]", [1]!obMake("","int",Q15), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.59375633806690098</v>
-      </c>
-      <c r="S15">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R15,$S$13,"[][]", [1]!obMake("","int",R15), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U15,$S$13,"[][][]", [1]!obMake("","int",U15), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>2.0654092570233321E-2</v>
-      </c>
-      <c r="W15">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V15,$S$13,"[][]", [1]!obMake("","int",V15), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q16,$S$13,"[][][]", [1]!obMake("","int",Q16), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.59152242802023169</v>
-      </c>
-      <c r="S16">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R16,$S$13,"[][]", [1]!obMake("","int",R16), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U16,$S$13,"[][][]", [1]!obMake("","int",U16), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>2.1322261423994768E-2</v>
-      </c>
-      <c r="W16">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V16,$S$13,"[][]", [1]!obMake("","int",V16), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="Q17">
-        <v>2</v>
-      </c>
-      <c r="R17">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q17,$S$13,"[][][]", [1]!obMake("","int",Q17), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.57775973751495446</v>
-      </c>
-      <c r="S17">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R17,$S$13,"[][]", [1]!obMake("","int",R17), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U17,$S$13,"[][][]", [1]!obMake("","int",U17), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>2.494123895576902E-2</v>
-      </c>
-      <c r="W17">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V17,$S$13,"[][]", [1]!obMake("","int",V17), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8" t="str">
-        <f>[1]!obMake("meanReversionArrayHW", "double[]",B19:B119)</f>
-        <v>meanReversionArrayHW 
-[5186]</v>
-      </c>
-      <c r="C18" s="8" t="str">
-        <f>[1]!obMake("volatilitesArrayHW", "double[]",C19:C119)</f>
-        <v>volatilitesArrayHW 
-[3218]</v>
-      </c>
-      <c r="D18" s="9" t="str">
-        <f>[1]!obMake("forwardRatesArrayHW", "double[]",D19:D23)</f>
-        <v>forwardRatesArrayHW 
-[3269]</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="K18" s="20" t="str">
-        <f>[1]!obMake("fixingAndPaymentDatesSwap", "double[]", K19:K28)</f>
-        <v>fixingAndPaymentDatesSwap 
-[3219]</v>
-      </c>
-      <c r="L18" s="20" t="str">
-        <f>[1]!obMake("Swap Rate", "double",L19)</f>
-        <v>Swap Rate 
-[3228]</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q18,$S$13,"[][][]", [1]!obMake("","int",Q18), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.56131992906146411</v>
-      </c>
-      <c r="S18">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R18,$S$13,"[][]", [1]!obMake("","int",R18), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U18">
-        <v>3</v>
-      </c>
-      <c r="V18">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U18,$S$13,"[][][]", [1]!obMake("","int",U18), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>2.9136978792319981E-2</v>
-      </c>
-      <c r="W18">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V18,$S$13,"[][]", [1]!obMake("","int",V18), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D19" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="F19" s="19" t="str">
-        <f>[1]!obMake("initialValue", "double", G19)</f>
+      <c r="J50" s="91"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="45"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="45"/>
+    </row>
+    <row r="51" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="44"/>
+      <c r="C51" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F51" s="50"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="18" t="str">
+        <f>[1]!obMake("initialValue", "double", J51)</f>
         <v>initialValue 
-[3226]</v>
-      </c>
-      <c r="G19" s="38">
+[6273]</v>
+      </c>
+      <c r="J51" s="88">
         <v>0.05</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="K19" s="21">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="R19">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q19,$S$13,"[][][]", [1]!obMake("","int",Q19), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.55039315772704067</v>
-      </c>
-      <c r="S19">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R19,$S$13,"[][]", [1]!obMake("","int",R19), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U19">
-        <v>4</v>
-      </c>
-      <c r="V19">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U19,$S$13,"[][][]", [1]!obMake("","int",U19), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>3.1914505204759566E-2</v>
-      </c>
-      <c r="W19">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V19,$S$13,"[][]", [1]!obMake("","int",V19), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D20" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="F20" s="19" t="str">
-        <f>[1]!obMake("kappa","double",G20)</f>
-        <v>kappa 
-[3268]</v>
-      </c>
-      <c r="G20" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="K20" s="22">
-        <v>2</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q20,$S$13,"[][][]", [1]!obMake("","int",Q20), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.5258122501301703</v>
-      </c>
-      <c r="S20">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R20,$S$13,"[][]", [1]!obMake("","int",R20), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U20">
-        <v>5</v>
-      </c>
-      <c r="V20">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U20,$S$13,"[][][]", [1]!obMake("","int",U20), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>3.1795869152534517E-2</v>
-      </c>
-      <c r="W20">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V20,$S$13,"[][]", [1]!obMake("","int",V20), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B21" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D21" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="19" t="str">
-        <f>[1]!obMake("mu","double",G21)</f>
-        <v>mu 
-[3246]</v>
-      </c>
-      <c r="G21" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="K21" s="22">
-        <v>3</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-      <c r="R21">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q21,$S$13,"[][][]", [1]!obMake("","int",Q21), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.50370420023270246</v>
-      </c>
-      <c r="S21">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R21,$S$13,"[][]", [1]!obMake("","int",R21), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U21">
-        <v>6</v>
-      </c>
-      <c r="V21">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U21,$S$13,"[][][]", [1]!obMake("","int",U21), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>3.50296729668143E-2</v>
-      </c>
-      <c r="W21">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V21,$S$13,"[][]", [1]!obMake("","int",V21), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D22" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="F22" s="19" t="str">
-        <f>[1]!obMake("nu","double", G22)</f>
-        <v>nu 
-[3341]</v>
-      </c>
-      <c r="G22" s="38">
-        <f>SQRT(G20*G21)-0.0001</f>
-        <v>7.0610678118654763E-2</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="K22" s="22">
-        <v>4</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="Q22">
-        <v>7</v>
-      </c>
-      <c r="R22">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q22,$S$13,"[][][]", [1]!obMake("","int",Q22), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.49516406798278978</v>
-      </c>
-      <c r="S22">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R22,$S$13,"[][]", [1]!obMake("","int",R22), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U22">
-        <v>7</v>
-      </c>
-      <c r="V22">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U22,$S$13,"[][][]", [1]!obMake("","int",U22), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>3.7410983998527825E-2</v>
-      </c>
-      <c r="W22">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V22,$S$13,"[][]", [1]!obMake("","int",V22), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="K23" s="22">
-        <v>5</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="Q23">
-        <v>8</v>
-      </c>
-      <c r="R23">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q23,$S$13,"[][][]", [1]!obMake("","int",Q23), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.48295574858104512</v>
-      </c>
-      <c r="S23">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R23,$S$13,"[][]", [1]!obMake("","int",R23), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U23">
-        <v>8</v>
-      </c>
-      <c r="V23">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U23,$S$13,"[][][]", [1]!obMake("","int",U23), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>4.0942860505577723E-2</v>
-      </c>
-      <c r="W23">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V23,$S$13,"[][]", [1]!obMake("","int",V23), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B24" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="K24" s="22">
-        <v>6</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="Q24">
-        <v>9</v>
-      </c>
-      <c r="R24">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q24,$S$13,"[][][]", [1]!obMake("","int",Q24), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.47410905499935024</v>
-      </c>
-      <c r="S24">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R24,$S$13,"[][]", [1]!obMake("","int",R24), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U24">
-        <v>9</v>
-      </c>
-      <c r="V24">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U24,$S$13,"[][][]", [1]!obMake("","int",U24), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>4.3809588743545687E-2</v>
-      </c>
-      <c r="W24">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V24,$S$13,"[][]", [1]!obMake("","int",V24), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="K25" s="22">
-        <v>7</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="Q25">
-        <v>10</v>
-      </c>
-      <c r="R25">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q25,$S$13,"[][][]", [1]!obMake("","int",Q25), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.473347075625769</v>
-      </c>
-      <c r="S25">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R25,$S$13,"[][]", [1]!obMake("","int",R25), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.77136991093190055</v>
-      </c>
-      <c r="U25">
-        <v>10</v>
-      </c>
-      <c r="V25">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U25,$S$13,"[][][]", [1]!obMake("","int",U25), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>4.421007939204484E-2</v>
-      </c>
-      <c r="W25">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V25,$S$13,"[][]", [1]!obMake("","int",V25), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.970647339894818E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B26" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="K26" s="22">
-        <v>8</v>
-      </c>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="F27" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="22">
-        <v>9</v>
-      </c>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B28" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="K28" s="23">
-        <v>10</v>
-      </c>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B29" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="F29" s="34" t="str">
-        <f>[1]!obMake("correlations", "double[]", F30:F40)</f>
-        <v>correlations 
-[3227]</v>
-      </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B30" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="F30" s="35">
-        <v>-0.99</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="K30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>28</v>
-      </c>
-      <c r="S30" t="str">
-        <f>[1]!obCall("resultsLando", K43, "getIntBasedCWCCVAforLandoPar",)</f>
-        <v>resultsLando 
-[5200]</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="F31" s="12">
-        <v>-0.95</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="K31" t="str">
-        <f>[1]!obMake("intBasedCWCCVAforDifCor", "test.net.finmath.antonsporrer.masterthesis.montecarlo.cva.IntBasedCWCCVAforDifCor", B6,B18,C18,D18,F29,K18,K4:M4 )</f>
-        <v>intBasedCWCCVAforDifCor 
-[5187]</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B32" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="F32" s="12">
-        <v>-0.7</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="K32" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q32,$S$30,"[][][]", [1]!obMake("","int",Q32), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>0.39835853095155921</v>
-      </c>
-      <c r="S32">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R32,$S$30,"[][]", [1]!obMake("","int",R32), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>0.7452660244005751</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U32,$S$30,"[][][]", [1]!obMake("","int",U32), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>7.5423452833013341E-2</v>
-      </c>
-      <c r="W32">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V32,$S$30,"[][]", [1]!obMake("","int",V32), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>7.9018756824129913E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B33" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="F33" s="12">
-        <v>-0.4</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="K33" t="str">
-        <f>[1]!obCall("", K31, "setInitialTime",B5)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5188]</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q33,$S$30,"[][][]", [1]!obMake("","int",Q33), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S33" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R33,$S$30,"[][]", [1]!obMake("","int",R33), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U33,$S$30,"[][][]", [1]!obMake("","int",U33), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W33" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V33,$S$30,"[][]", [1]!obMake("","int",V33), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="F34" s="12">
-        <v>-0.2</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="K34" t="str">
-        <f>[1]!obCall("", K33, "setTimeStepSize",B7)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5189]</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-      <c r="R34" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q34,$S$30,"[][][]", [1]!obMake("","int",Q34), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S34" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R34,$S$30,"[][]", [1]!obMake("","int",R34), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U34">
-        <v>2</v>
-      </c>
-      <c r="V34" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U34,$S$30,"[][][]", [1]!obMake("","int",U34), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W34" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V34,$S$30,"[][]", [1]!obMake("","int",V34), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B35" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="F35" s="12">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="K35" t="str">
-        <f>[1]!obCall("", K34, "setNumberOfPaths",E6)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5190]</v>
-      </c>
-      <c r="Q35">
-        <v>3</v>
-      </c>
-      <c r="R35" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q35,$S$30,"[][][]", [1]!obMake("","int",Q35), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S35" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R35,$S$30,"[][]", [1]!obMake("","int",R35), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U35">
-        <v>3</v>
-      </c>
-      <c r="V35" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U35,$S$30,"[][][]", [1]!obMake("","int",U35), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W35" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V35,$S$30,"[][]", [1]!obMake("","int",V35), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B36" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="F36" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="K36" t="str">
-        <f>[1]!obCall("", K35, "setSeed",E7)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5191]</v>
-      </c>
-      <c r="Q36">
-        <v>4</v>
-      </c>
-      <c r="R36" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q36,$S$30,"[][][]", [1]!obMake("","int",Q36), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S36" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R36,$S$30,"[][]", [1]!obMake("","int",R36), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U36">
-        <v>4</v>
-      </c>
-      <c r="V36" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U36,$S$30,"[][][]", [1]!obMake("","int",U36), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W36" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V36,$S$30,"[][]", [1]!obMake("","int",V36), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B37" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="F37" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="K37" t="str">
-        <f>[1]!obCall("", K36, "setInitialValue",F19)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5192]</v>
-      </c>
-      <c r="Q37">
-        <v>5</v>
-      </c>
-      <c r="R37" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q37,$S$30,"[][][]", [1]!obMake("","int",Q37), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S37" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R37,$S$30,"[][]", [1]!obMake("","int",R37), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U37">
-        <v>5</v>
-      </c>
-      <c r="V37" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U37,$S$30,"[][][]", [1]!obMake("","int",U37), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W37" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V37,$S$30,"[][]", [1]!obMake("","int",V37), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B38" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="F38" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="K38" t="str">
-        <f>[1]!obCall("", K37, "setKappa",F20)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5193]</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-      <c r="R38" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q38,$S$30,"[][][]", [1]!obMake("","int",Q38), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S38" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R38,$S$30,"[][]", [1]!obMake("","int",R38), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U38">
-        <v>6</v>
-      </c>
-      <c r="V38" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U38,$S$30,"[][][]", [1]!obMake("","int",U38), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W38" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V38,$S$30,"[][]", [1]!obMake("","int",V38), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B39" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="F39" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="K39" t="str">
-        <f>[1]!obCall("", K38, "setMu",F21)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5194]</v>
-      </c>
-      <c r="Q39">
-        <v>7</v>
-      </c>
-      <c r="R39" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q39,$S$30,"[][][]", [1]!obMake("","int",Q39), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S39" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R39,$S$30,"[][]", [1]!obMake("","int",R39), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U39">
-        <v>7</v>
-      </c>
-      <c r="V39" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U39,$S$30,"[][][]", [1]!obMake("","int",U39), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W39" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V39,$S$30,"[][]", [1]!obMake("","int",V39), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B40" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="F40" s="12">
-        <v>0.99</v>
-      </c>
-      <c r="K40" t="str">
-        <f>[1]!obCall("", K39, "setNu",F22)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5195]</v>
-      </c>
-      <c r="Q40">
-        <v>8</v>
-      </c>
-      <c r="R40" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q40,$S$30,"[][][]", [1]!obMake("","int",Q40), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S40" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R40,$S$30,"[][]", [1]!obMake("","int",R40), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U40">
-        <v>8</v>
-      </c>
-      <c r="V40" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U40,$S$30,"[][][]", [1]!obMake("","int",U40), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W40" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V40,$S$30,"[][]", [1]!obMake("","int",V40), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B41" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="K41" t="str">
-        <f>[1]!obCall("", K40, "setSwapRate",L18)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5196]</v>
-      </c>
-      <c r="Q41">
-        <v>9</v>
-      </c>
-      <c r="R41" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q41,$S$30,"[][][]", [1]!obMake("","int",Q41), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S41" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R41,$S$30,"[][]", [1]!obMake("","int",R41), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U41">
-        <v>9</v>
-      </c>
-      <c r="V41" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U41,$S$30,"[][][]", [1]!obMake("","int",U41), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W41" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V41,$S$30,"[][]", [1]!obMake("","int",V41), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B42" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="K42" t="str">
-        <f>[1]!obCall("", K41, "setPenaltyFactor",B10)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5197]</v>
-      </c>
-      <c r="Q42">
-        <v>10</v>
-      </c>
-      <c r="R42" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;Q42,$S$30,"[][][]", [1]!obMake("","int",Q42), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S42" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;R42,$S$30,"[][]", [1]!obMake("","int",R42), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U42">
-        <v>10</v>
-      </c>
-      <c r="V42" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;U42,$S$30,"[][][]", [1]!obMake("","int",U42), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W42" t="e">
-        <f>[1]!obGet([1]!obCall("ib"&amp;V42,$S$30,"[][]", [1]!obMake("","int",V42), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="F43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" t="str">
-        <f>[1]!obCall("", K42, "setLandoFunction",F45)</f>
-        <v>intBasedCWCCVAforDifCor 
-[5198]</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B44" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B45" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="F45" t="str">
+      <c r="K51" s="89"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="4" t="str">
         <f>[1]!obMake("landoFunctionList", "java.util.ArrayList", )</f>
         <v>landoFunctionList 
-[3996]</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B46" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B47" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="F48" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="F50" t="str">
+[6264]</v>
+      </c>
+      <c r="N51" s="45"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="45"/>
+    </row>
+    <row r="52" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="44"/>
+      <c r="C52" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E52" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="F52" s="50"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="18" t="str">
+        <f>[1]!obMake("kappa","double",J52)</f>
+        <v>kappa 
+[6321]</v>
+      </c>
+      <c r="J52" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="K52" s="89"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="45"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="59" t="str">
+        <f>[1]!obCall("resultsLando", R19, "getIntBasedCWCCVAforLandoPar",)</f>
+        <v>resultsLando 
+[6725]</v>
+      </c>
+      <c r="T52" s="60"/>
+      <c r="U52" s="60"/>
+      <c r="V52" s="60"/>
+      <c r="W52" s="60"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="45"/>
+    </row>
+    <row r="53" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="44"/>
+      <c r="C53" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="F53" s="50"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="18" t="str">
+        <f>[1]!obMake("mu","double",J53)</f>
+        <v>mu 
+[6275]</v>
+      </c>
+      <c r="J53" s="88">
+        <v>0.05</v>
+      </c>
+      <c r="K53" s="89"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N53" s="45"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="T53" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="U53" s="62"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y53" s="45"/>
+    </row>
+    <row r="54" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="44"/>
+      <c r="C54" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="F54" s="50"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="18" t="str">
+        <f>[1]!obMake("nu","double", J54)</f>
+        <v>nu 
+[6292]</v>
+      </c>
+      <c r="J54" s="88">
+        <f>SQRT(J52*J53)-0.0001</f>
+        <v>7.0610678118654763E-2</v>
+      </c>
+      <c r="K54" s="89"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="4" t="str">
+        <f>[1]!obCall("",M51,"add",M59)</f>
+        <v>ob.trans.8755 
+[6271]</v>
+      </c>
+      <c r="N54" s="45"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="70">
+        <v>0</v>
+      </c>
+      <c r="S54" s="81">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R54,$S$52,"[][][]", [1]!obMake("","int",R54), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>0.12522192686883649</v>
+      </c>
+      <c r="T54" s="86">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S54,$S$52,"[][]", [1]!obMake("","int",S54), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>0.29079315467216216</v>
+      </c>
+      <c r="U54" s="1"/>
+      <c r="V54" s="72">
+        <v>0</v>
+      </c>
+      <c r="W54" s="81">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V54,$S$52,"[][][]", [1]!obMake("","int",V54), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>2.4044492643638532E-2</v>
+      </c>
+      <c r="X54" s="86">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W54,$S$52,"[][]", [1]!obMake("","int",W54), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>2.7338404549299415E-2</v>
+      </c>
+      <c r="Y54" s="45"/>
+    </row>
+    <row r="55" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="44"/>
+      <c r="C55" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E55" s="35">
+        <v>0.01</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="4" t="e">
+        <f>[1]!obCall("",M51,"add",M60)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" s="45"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="83">
+        <v>1</v>
+      </c>
+      <c r="S55" s="82" t="e">
+        <f>[1]!obGet([1]!obCall("ib"&amp;R55,$S$52,"[][][]", [1]!obMake("","int",R55), [1]!obMake("","int",0),[1]!obMake("","int",0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T55" s="57" t="e">
+        <f>[1]!obGet([1]!obCall("ib"&amp;S55,$S$52,"[][]", [1]!obMake("","int",S55), [1]!obMake("","int",1),[1]!obMake("","int",0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U55" s="1"/>
+      <c r="V55" s="73">
+        <v>1</v>
+      </c>
+      <c r="W55" s="82" t="e">
+        <f>[1]!obGet([1]!obCall("ib"&amp;V55,$S$52,"[][][]", [1]!obMake("","int",V55), [1]!obMake("","int",0),[1]!obMake("","int",1)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X55" s="57" t="e">
+        <f>[1]!obGet([1]!obCall("ib"&amp;W55,$S$52,"[][]", [1]!obMake("","int",W55), [1]!obMake("","int",1),[1]!obMake("","int",1)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y55" s="45"/>
+    </row>
+    <row r="56" spans="2:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="44"/>
+      <c r="C56" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="45"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="47"/>
+      <c r="T56" s="47"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="48"/>
+    </row>
+    <row r="57" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="44"/>
+      <c r="C57" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E57" s="15"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57" s="45"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="44"/>
+      <c r="C58" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="45"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="44"/>
+      <c r="C59" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="19" t="str">
+        <f>[1]!obMake("correlations", "double[]", I60:I70)</f>
+        <v>correlations 
+[6270]</v>
+      </c>
+      <c r="J59" s="23"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="6" t="str">
         <f>[1]!obMake("landoFunction", "main.net.finmath.antonsporrer.masterthesis.function.IntensityFunctionSwitchShiftFloor", [1]!obMake("", "double", 0) )</f>
         <v>landoFunction 
-[3680]</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="F51" t="str">
+[6266]</v>
+      </c>
+      <c r="N59" s="45"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="44"/>
+      <c r="C60" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="34">
+        <v>-0.99</v>
+      </c>
+      <c r="J60" s="24"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="6" t="e">
         <f>[1]!obMake("landoFunction2", "main.net.finmath.antonsporrer.masterthesis.function.ConstantFunction", [1]!obMake("", "double", 0.01) )</f>
-        <v>landoFunction2 
-[3224]</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="F53" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D54" s="15"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C55" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="F55" t="str">
-        <f>[1]!obCall("",F45,"add",F50)</f>
-        <v>ob.trans.8491 
-[3997]</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D56" s="15"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C57" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C58" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C59" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D59" s="15"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C60" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D60" s="15"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C61" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C62" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D63" s="15"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C64" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C65" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C67" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D67" s="15"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C68" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D68" s="15"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C69" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D69" s="15"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C70" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D70" s="15"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C71" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C72" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C73" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C74" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D74" s="15"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C75" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C76" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D76" s="15"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C77" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D77" s="15"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C78" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D78" s="15"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C79" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D79" s="15"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C80" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C81" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C82" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D82" s="15"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C83" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D83" s="15"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C84" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D84" s="15"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C85" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D85" s="15"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C86" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D86" s="15"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C87" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D87" s="15"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C88" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D88" s="15"/>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C89" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D89" s="15"/>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C90" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C91" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D91" s="15"/>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C92" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D92" s="15"/>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C93" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D93" s="15"/>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C94" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D94" s="15"/>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C95" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D95" s="15"/>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C96" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D96" s="15"/>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C97" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D97" s="15"/>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C98" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D98" s="15"/>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C99" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D99" s="15"/>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C100" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D100" s="15"/>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C101" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D101" s="15"/>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C102" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D102" s="15"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C103" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D103" s="15"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C104" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D104" s="15"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C105" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D105" s="15"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C106" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D106" s="15"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C107" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D107" s="15"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C108" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D108" s="15"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C109" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D109" s="15"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C110" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D110" s="15"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C111" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D111" s="15"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C112" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D112" s="15"/>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C113" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D113" s="15"/>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C114" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D114" s="15"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C115" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D115" s="15"/>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C116" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D116" s="15"/>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C117" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D117" s="15"/>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C118" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D118" s="15"/>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" s="21">
-        <v>0.01</v>
-      </c>
-      <c r="C119" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="D119" s="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N60" s="45"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="44"/>
+      <c r="C61" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E61" s="15"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="12">
+        <v>-0.95</v>
+      </c>
+      <c r="J61" s="24"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="N61" s="45"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="44"/>
+      <c r="C62" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E62" s="15"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="12">
+        <v>-0.7</v>
+      </c>
+      <c r="J62" s="24"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="45"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="44"/>
+      <c r="C63" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E63" s="15"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="12">
+        <v>-0.4</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="45"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+    </row>
+    <row r="64" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="44"/>
+      <c r="C64" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="12">
+        <v>-0.2</v>
+      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="45"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="44"/>
+      <c r="C65" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="24"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="45"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="44"/>
+      <c r="C66" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="45"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="44"/>
+      <c r="C67" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="45"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="44"/>
+      <c r="C68" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="J68" s="24"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="45"/>
+    </row>
+    <row r="69" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="44"/>
+      <c r="C69" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E69" s="15"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="J69" s="24"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="45"/>
+    </row>
+    <row r="70" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="44"/>
+      <c r="C70" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E70" s="15"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="45"/>
+    </row>
+    <row r="71" spans="2:25" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="44"/>
+      <c r="C71" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E71" s="15"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="48"/>
+    </row>
+    <row r="72" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="44"/>
+      <c r="C72" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="44"/>
+      <c r="C73" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E73" s="15"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="44"/>
+      <c r="C74" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="44"/>
+      <c r="C75" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="44"/>
+      <c r="C76" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="44"/>
+      <c r="C77" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="44"/>
+      <c r="C78" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="44"/>
+      <c r="C79" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E79" s="15"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="2:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="44"/>
+      <c r="C80" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="44"/>
+      <c r="C81" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="44"/>
+      <c r="C82" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E82" s="15"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="44"/>
+      <c r="C83" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E83" s="15"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="44"/>
+      <c r="C84" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D84" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="44"/>
+      <c r="C85" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D85" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E85" s="15"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="44"/>
+      <c r="C86" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D86" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E86" s="15"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="44"/>
+      <c r="C87" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E87" s="15"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="44"/>
+      <c r="C88" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E88" s="15"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="44"/>
+      <c r="C89" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E89" s="15"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="44"/>
+      <c r="C90" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E90" s="15"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="44"/>
+      <c r="C91" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E91" s="15"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="44"/>
+      <c r="C92" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E92" s="15"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="44"/>
+      <c r="C93" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="44"/>
+      <c r="C94" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E94" s="15"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="44"/>
+      <c r="C95" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="44"/>
+      <c r="C96" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E96" s="15"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="44"/>
+      <c r="C97" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E97" s="15"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="44"/>
+      <c r="C98" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E98" s="15"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="44"/>
+      <c r="C99" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E99" s="15"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="15"/>
+    </row>
+    <row r="100" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="44"/>
+      <c r="C100" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E100" s="15"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="44"/>
+      <c r="C101" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E101" s="15"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="44"/>
+      <c r="C102" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E102" s="15"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="44"/>
+      <c r="C103" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D103" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="44"/>
+      <c r="C104" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E104" s="15"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="44"/>
+      <c r="C105" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="44"/>
+      <c r="C106" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E106" s="15"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="44"/>
+      <c r="C107" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="44"/>
+      <c r="C108" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E108" s="15"/>
+      <c r="F108" s="51"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="44"/>
+      <c r="C109" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="44"/>
+      <c r="C110" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E110" s="15"/>
+      <c r="F110" s="51"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="44"/>
+      <c r="C111" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E111" s="15"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="44"/>
+      <c r="C112" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E112" s="15"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="44"/>
+      <c r="C113" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E113" s="15"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="44"/>
+      <c r="C114" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E114" s="15"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="44"/>
+      <c r="C115" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E115" s="15"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="44"/>
+      <c r="C116" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E116" s="15"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="15"/>
+    </row>
+    <row r="117" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="44"/>
+      <c r="C117" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E117" s="15"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="44"/>
+      <c r="C118" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E118" s="15"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="119" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="44"/>
+      <c r="C119" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="15"/>
+    </row>
+    <row r="120" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="44"/>
+      <c r="C120" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E120" s="15"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="15"/>
+    </row>
+    <row r="121" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="44"/>
+      <c r="C121" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E121" s="15"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="15"/>
+    </row>
+    <row r="122" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="44"/>
+      <c r="C122" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E122" s="15"/>
+      <c r="F122" s="51"/>
+      <c r="G122" s="15"/>
+    </row>
+    <row r="123" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="44"/>
+      <c r="C123" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E123" s="15"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="15"/>
+    </row>
+    <row r="124" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="44"/>
+      <c r="C124" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E124" s="15"/>
+      <c r="F124" s="51"/>
+      <c r="G124" s="15"/>
+    </row>
+    <row r="125" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="44"/>
+      <c r="C125" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E125" s="15"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="15"/>
+    </row>
+    <row r="126" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="44"/>
+      <c r="C126" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E126" s="15"/>
+      <c r="F126" s="51"/>
+      <c r="G126" s="15"/>
+    </row>
+    <row r="127" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="44"/>
+      <c r="C127" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E127" s="15"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="15"/>
+    </row>
+    <row r="128" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="44"/>
+      <c r="C128" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E128" s="15"/>
+      <c r="F128" s="51"/>
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="44"/>
+      <c r="C129" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E129" s="15"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="15"/>
+    </row>
+    <row r="130" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="44"/>
+      <c r="C130" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E130" s="15"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="15"/>
+    </row>
+    <row r="131" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="44"/>
+      <c r="C131" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E131" s="15"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="15"/>
+    </row>
+    <row r="132" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="44"/>
+      <c r="C132" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E132" s="15"/>
+      <c r="F132" s="51"/>
+      <c r="G132" s="15"/>
+    </row>
+    <row r="133" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="44"/>
+      <c r="C133" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E133" s="15"/>
+      <c r="F133" s="51"/>
+      <c r="G133" s="15"/>
+    </row>
+    <row r="134" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="44"/>
+      <c r="C134" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E134" s="15"/>
+      <c r="F134" s="51"/>
+      <c r="G134" s="15"/>
+    </row>
+    <row r="135" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="44"/>
+      <c r="C135" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E135" s="15"/>
+      <c r="F135" s="51"/>
+      <c r="G135" s="15"/>
+    </row>
+    <row r="136" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="44"/>
+      <c r="C136" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E136" s="15"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="44"/>
+      <c r="C137" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E137" s="15"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="44"/>
+      <c r="C138" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E138" s="15"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="15"/>
+    </row>
+    <row r="139" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="44"/>
+      <c r="C139" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E139" s="15"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="15"/>
+    </row>
+    <row r="140" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="44"/>
+      <c r="C140" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E140" s="15"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="15"/>
+    </row>
+    <row r="141" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="44"/>
+      <c r="C141" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E141" s="15"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="15"/>
+    </row>
+    <row r="142" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="44"/>
+      <c r="C142" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E142" s="15"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="15"/>
+    </row>
+    <row r="143" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="44"/>
+      <c r="C143" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E143" s="15"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="44"/>
+      <c r="C144" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="15"/>
+    </row>
+    <row r="145" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="44"/>
+      <c r="C145" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E145" s="15"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="15"/>
+    </row>
+    <row r="146" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="44"/>
+      <c r="C146" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D146" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E146" s="15"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="15"/>
+    </row>
+    <row r="147" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="44"/>
+      <c r="C147" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E147" s="15"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="15"/>
+    </row>
+    <row r="148" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="44"/>
+      <c r="C148" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D148" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E148" s="15"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="15"/>
+    </row>
+    <row r="149" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="44"/>
+      <c r="C149" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E149" s="15"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="44"/>
+      <c r="C150" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E150" s="15"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="15"/>
+    </row>
+    <row r="151" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="44"/>
+      <c r="C151" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="D151" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="E151" s="15"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="15"/>
+    </row>
+    <row r="152" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="46"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="48"/>
+      <c r="G152" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="I50:K50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5332,15 +6873,15 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>7620</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
+                    <xdr:col>3</xdr:col>
                     <xdr:colOff>175260</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>39</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
